--- a/data/pca/factorExposure/factorExposure_2009-12-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-12-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.003576826428884804</v>
+        <v>0.01687537653357995</v>
       </c>
       <c r="C2">
-        <v>0.009373319159439241</v>
+        <v>-0.001233320201535118</v>
       </c>
       <c r="D2">
-        <v>0.001432056598115495</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.0061143209154335</v>
+      </c>
+      <c r="E2">
+        <v>-0.0003416293360441911</v>
+      </c>
+      <c r="F2">
+        <v>0.01142022992989519</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.03004872132707058</v>
+        <v>0.09376015790729082</v>
       </c>
       <c r="C4">
-        <v>0.1237218696326563</v>
+        <v>-0.01576956196489067</v>
       </c>
       <c r="D4">
-        <v>0.01767010719193452</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08409649235273037</v>
+      </c>
+      <c r="E4">
+        <v>0.02853690849298095</v>
+      </c>
+      <c r="F4">
+        <v>-0.03085736563461741</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.03733121625970047</v>
+        <v>0.1572408263813104</v>
       </c>
       <c r="C6">
-        <v>0.109263107382611</v>
+        <v>-0.02545653639917211</v>
       </c>
       <c r="D6">
-        <v>-0.03505449780920167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02325711777635655</v>
+      </c>
+      <c r="E6">
+        <v>0.008546925773088252</v>
+      </c>
+      <c r="F6">
+        <v>-0.04648248174484475</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.01013956975150962</v>
+        <v>0.0626564068994109</v>
       </c>
       <c r="C7">
-        <v>0.08246051832549296</v>
+        <v>0.0009950054043668286</v>
       </c>
       <c r="D7">
-        <v>-0.001144314961570787</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05131204038665975</v>
+      </c>
+      <c r="E7">
+        <v>0.009672510075813516</v>
+      </c>
+      <c r="F7">
+        <v>-0.0466461497212041</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.002758350748976885</v>
+        <v>0.05711772835135166</v>
       </c>
       <c r="C8">
-        <v>0.06577024798848422</v>
+        <v>0.01334687909944759</v>
       </c>
       <c r="D8">
-        <v>-0.02131429381347878</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03340546132417051</v>
+      </c>
+      <c r="E8">
+        <v>0.01757141368994666</v>
+      </c>
+      <c r="F8">
+        <v>0.02822616983837405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.02527516555923999</v>
+        <v>0.07128552411665337</v>
       </c>
       <c r="C9">
-        <v>0.1012644468935143</v>
+        <v>-0.01144392885862834</v>
       </c>
       <c r="D9">
-        <v>0.02282622605249887</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08603453546538783</v>
+      </c>
+      <c r="E9">
+        <v>0.02316016467523325</v>
+      </c>
+      <c r="F9">
+        <v>-0.04732052188830874</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.01150699021469133</v>
+        <v>0.09625525753845415</v>
       </c>
       <c r="C10">
-        <v>0.02417895382539814</v>
+        <v>-0.01992673205232833</v>
       </c>
       <c r="D10">
-        <v>-0.1355639808693489</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1709740873091054</v>
+      </c>
+      <c r="E10">
+        <v>-0.03691964621285683</v>
+      </c>
+      <c r="F10">
+        <v>0.0535441870828358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.02945581174260376</v>
+        <v>0.08793427450652135</v>
       </c>
       <c r="C11">
-        <v>0.1066962844720343</v>
+        <v>-0.01103948986127338</v>
       </c>
       <c r="D11">
-        <v>0.03314128766874089</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1160537103643693</v>
+      </c>
+      <c r="E11">
+        <v>0.0460169173563205</v>
+      </c>
+      <c r="F11">
+        <v>-0.02157491415957992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.02685188303131456</v>
+        <v>0.09206885037669434</v>
       </c>
       <c r="C12">
-        <v>0.1175585833931982</v>
+        <v>-0.008093537959903901</v>
       </c>
       <c r="D12">
-        <v>0.03096347073459947</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.131504659156336</v>
+      </c>
+      <c r="E12">
+        <v>0.04737677355936858</v>
+      </c>
+      <c r="F12">
+        <v>-0.02551347027036589</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.009062818010255311</v>
+        <v>0.04222979177369521</v>
       </c>
       <c r="C13">
-        <v>0.04352634766453312</v>
+        <v>-0.00341380518155135</v>
       </c>
       <c r="D13">
-        <v>0.02570276731622146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05143276993317109</v>
+      </c>
+      <c r="E13">
+        <v>-0.008910516178166229</v>
+      </c>
+      <c r="F13">
+        <v>-0.002344775720668276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01602975934541696</v>
+        <v>0.02301366340527508</v>
       </c>
       <c r="C14">
-        <v>0.02330362296362713</v>
+        <v>-0.01392315555721326</v>
       </c>
       <c r="D14">
-        <v>-0.004684355948862221</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.0332516887911154</v>
+      </c>
+      <c r="E14">
+        <v>0.01719556784806078</v>
+      </c>
+      <c r="F14">
+        <v>-0.01443577160216732</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.01046486315023002</v>
+        <v>0.03286409954986139</v>
       </c>
       <c r="C15">
-        <v>0.02685734170047</v>
+        <v>-0.004927146431943019</v>
       </c>
       <c r="D15">
-        <v>0.01285645249277387</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04518765300585782</v>
+      </c>
+      <c r="E15">
+        <v>0.006068581526647522</v>
+      </c>
+      <c r="F15">
+        <v>-0.02286826883739624</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.01848611307263551</v>
+        <v>0.07418522768834158</v>
       </c>
       <c r="C16">
-        <v>0.1110244200045204</v>
+        <v>-0.002113646787944793</v>
       </c>
       <c r="D16">
-        <v>0.01278774206755766</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.125590965445899</v>
+      </c>
+      <c r="E16">
+        <v>0.06148610254964749</v>
+      </c>
+      <c r="F16">
+        <v>-0.02439069912830738</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,24 +1031,36 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.03163948337701239</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003276322597844571</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01958167029743068</v>
+      </c>
+      <c r="E18">
+        <v>-0.007008865408689026</v>
+      </c>
+      <c r="F18">
+        <v>0.003620206563188989</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01180292948860829</v>
+        <v>0.06105960265411259</v>
       </c>
       <c r="C20">
-        <v>0.06739999417958703</v>
+        <v>-0.0005835690596063038</v>
       </c>
       <c r="D20">
-        <v>0.0002100864647488812</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07667845946743919</v>
+      </c>
+      <c r="E20">
+        <v>0.05565925809317199</v>
+      </c>
+      <c r="F20">
+        <v>-0.02332056445942474</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.01266588150037821</v>
+        <v>0.04043181061497807</v>
       </c>
       <c r="C21">
-        <v>0.02341843087337794</v>
+        <v>-0.00659911793419809</v>
       </c>
       <c r="D21">
-        <v>-0.0005928783179302335</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03657152570719654</v>
+      </c>
+      <c r="E21">
+        <v>-0.005692650084148516</v>
+      </c>
+      <c r="F21">
+        <v>0.02399788306754166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.004893890715495629</v>
+        <v>0.04395646921750981</v>
       </c>
       <c r="C22">
-        <v>0.0282935061050136</v>
+        <v>-0.001077156475376543</v>
       </c>
       <c r="D22">
-        <v>-0.04158022825177841</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.002793320303610038</v>
+      </c>
+      <c r="E22">
+        <v>0.02957939333354194</v>
+      </c>
+      <c r="F22">
+        <v>0.03454973938113434</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.004881774080690598</v>
+        <v>0.04394205236417921</v>
       </c>
       <c r="C23">
-        <v>0.02822504518506286</v>
+        <v>-0.001072883867269821</v>
       </c>
       <c r="D23">
-        <v>-0.04165422019907735</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.002798106016270252</v>
+      </c>
+      <c r="E23">
+        <v>0.02978111444426308</v>
+      </c>
+      <c r="F23">
+        <v>0.03451241524892022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.01895165851656477</v>
+        <v>0.08025225110825839</v>
       </c>
       <c r="C24">
-        <v>0.1134167596065779</v>
+        <v>-0.002665937863191525</v>
       </c>
       <c r="D24">
-        <v>0.0238160693353459</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1202187851364437</v>
+      </c>
+      <c r="E24">
+        <v>0.04888439179594039</v>
+      </c>
+      <c r="F24">
+        <v>-0.02570749161832175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.02437455658576311</v>
+        <v>0.08524083114687937</v>
       </c>
       <c r="C25">
-        <v>0.1152844348807462</v>
+        <v>-0.004897853041847236</v>
       </c>
       <c r="D25">
-        <v>0.01988316435709603</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1085171850268895</v>
+      </c>
+      <c r="E25">
+        <v>0.03224142115108642</v>
+      </c>
+      <c r="F25">
+        <v>-0.02650175171803425</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.02394243469922172</v>
+        <v>0.05760156678040615</v>
       </c>
       <c r="C26">
-        <v>0.04817119917053123</v>
+        <v>-0.01458406021436515</v>
       </c>
       <c r="D26">
-        <v>-0.01996301209366758</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04012596176834044</v>
+      </c>
+      <c r="E26">
+        <v>0.02808839068251204</v>
+      </c>
+      <c r="F26">
+        <v>0.009527518380347107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.004080995208530174</v>
+        <v>0.1407088126033112</v>
       </c>
       <c r="C28">
-        <v>0.02968006021348227</v>
+        <v>-0.01909390460992344</v>
       </c>
       <c r="D28">
-        <v>-0.1941071661321498</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2634899485156022</v>
+      </c>
+      <c r="E28">
+        <v>-0.0681321134001862</v>
+      </c>
+      <c r="F28">
+        <v>-0.009447697262335381</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.01287841227890129</v>
+        <v>0.02772587248566755</v>
       </c>
       <c r="C29">
-        <v>0.02847018383758272</v>
+        <v>-0.008174268872987058</v>
       </c>
       <c r="D29">
-        <v>-0.0114107101836049</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03258893103020725</v>
+      </c>
+      <c r="E29">
+        <v>0.01132771907626659</v>
+      </c>
+      <c r="F29">
+        <v>0.01025278006925947</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.01526887965436542</v>
+        <v>0.06153199475334895</v>
       </c>
       <c r="C30">
-        <v>0.1295592530354587</v>
+        <v>-0.003945815796116045</v>
       </c>
       <c r="D30">
-        <v>0.01850027844128603</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08769641188012051</v>
+      </c>
+      <c r="E30">
+        <v>0.01879707632691903</v>
+      </c>
+      <c r="F30">
+        <v>-0.08314241831297682</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02187227157602727</v>
+        <v>0.04995642973284278</v>
       </c>
       <c r="C31">
-        <v>0.03528302696826445</v>
+        <v>-0.01527654576678228</v>
       </c>
       <c r="D31">
-        <v>-0.004842141082792573</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02489125676803472</v>
+      </c>
+      <c r="E31">
+        <v>0.02749387279281425</v>
+      </c>
+      <c r="F31">
+        <v>0.002691837012408864</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.00748226262600264</v>
+        <v>0.05010066889125184</v>
       </c>
       <c r="C32">
-        <v>0.06049799766102575</v>
+        <v>0.001481934518363732</v>
       </c>
       <c r="D32">
-        <v>-0.03046843323840415</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03564992477270163</v>
+      </c>
+      <c r="E32">
+        <v>0.03132975987059274</v>
+      </c>
+      <c r="F32">
+        <v>-0.00261258052328183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.02246073147618652</v>
+        <v>0.08943068582176324</v>
       </c>
       <c r="C33">
-        <v>0.1165952913722377</v>
+        <v>-0.008222736682433786</v>
       </c>
       <c r="D33">
-        <v>0.0216403983318699</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.09839129933936018</v>
+      </c>
+      <c r="E33">
+        <v>0.04405641444471624</v>
+      </c>
+      <c r="F33">
+        <v>-0.03568755760625281</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.02602570181616719</v>
+        <v>0.06846534233761875</v>
       </c>
       <c r="C34">
-        <v>0.09766983388383924</v>
+        <v>-0.01118873748181611</v>
       </c>
       <c r="D34">
-        <v>0.01406591658555222</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1065714596866186</v>
+      </c>
+      <c r="E34">
+        <v>0.03463108051467201</v>
+      </c>
+      <c r="F34">
+        <v>-0.03368179474120407</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.003892795297677899</v>
+        <v>0.02413868627521729</v>
       </c>
       <c r="C35">
-        <v>0.01638138356204151</v>
+        <v>-0.002395483434233247</v>
       </c>
       <c r="D35">
-        <v>0.00125946433980096</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01191375928580565</v>
+      </c>
+      <c r="E35">
+        <v>0.01174872878032403</v>
+      </c>
+      <c r="F35">
+        <v>-0.001082713415690104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.01083778439183465</v>
+        <v>0.02758948244819012</v>
       </c>
       <c r="C36">
-        <v>0.02697354560364572</v>
+        <v>-0.007231560290394471</v>
       </c>
       <c r="D36">
-        <v>0.009356475999287267</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03930635379398098</v>
+      </c>
+      <c r="E36">
+        <v>0.01605998284020119</v>
+      </c>
+      <c r="F36">
+        <v>-0.01537591886471217</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0004194377852530029</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>4.537164923511862e-05</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.0004345715735998533</v>
+      </c>
+      <c r="E37">
+        <v>-0.0004363800971130191</v>
+      </c>
+      <c r="F37">
+        <v>-0.0007386901082385831</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.0005708967037523645</v>
+        <v>0.001342649895675457</v>
       </c>
       <c r="C38">
-        <v>0.004051721585093831</v>
+        <v>-0.0002087546161265887</v>
       </c>
       <c r="D38">
-        <v>-0.001856511912503332</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0004716801966240088</v>
+      </c>
+      <c r="E38">
+        <v>0.0008327397112909208</v>
+      </c>
+      <c r="F38">
+        <v>0.0006014388569725908</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.04186882734739897</v>
+        <v>0.1057093268505121</v>
       </c>
       <c r="C39">
-        <v>0.1707570985381709</v>
+        <v>-0.01645900886673865</v>
       </c>
       <c r="D39">
-        <v>0.04699057049737292</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1539263692716168</v>
+      </c>
+      <c r="E39">
+        <v>0.0590611426206334</v>
+      </c>
+      <c r="F39">
+        <v>-0.02798875273911689</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.01117214912691732</v>
+        <v>0.04112904494232202</v>
       </c>
       <c r="C40">
-        <v>0.01362837646796636</v>
+        <v>-0.007095785618630168</v>
       </c>
       <c r="D40">
-        <v>-0.009037832298134263</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.031798447548885</v>
+      </c>
+      <c r="E40">
+        <v>0.003104568460219246</v>
+      </c>
+      <c r="F40">
+        <v>0.01572012851704617</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.01132007439554193</v>
+        <v>0.02753152613879842</v>
       </c>
       <c r="C41">
-        <v>0.01936794777317165</v>
+        <v>-0.006714244008867947</v>
       </c>
       <c r="D41">
-        <v>-0.0167201676876253</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01063390810189079</v>
+      </c>
+      <c r="E41">
+        <v>0.01254857133396357</v>
+      </c>
+      <c r="F41">
+        <v>0.006843924428375432</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.01322727920536942</v>
+        <v>0.04048918682888449</v>
       </c>
       <c r="C43">
-        <v>0.02667771834398566</v>
+        <v>-0.006697685956905649</v>
       </c>
       <c r="D43">
-        <v>-0.01173002520263167</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02083442190428186</v>
+      </c>
+      <c r="E43">
+        <v>0.02523653450969316</v>
+      </c>
+      <c r="F43">
+        <v>0.01265970852547782</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.03130156730111344</v>
+        <v>0.08044252821129172</v>
       </c>
       <c r="C44">
-        <v>0.1298829058778849</v>
+        <v>-0.02027732818867024</v>
       </c>
       <c r="D44">
-        <v>0.003394979171380843</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09883518105169595</v>
+      </c>
+      <c r="E44">
+        <v>0.06648521508506935</v>
+      </c>
+      <c r="F44">
+        <v>-0.1572682649108646</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.005457063281907891</v>
+        <v>0.02349826128176189</v>
       </c>
       <c r="C46">
-        <v>0.005840385915066675</v>
+        <v>-0.003418877262785358</v>
       </c>
       <c r="D46">
-        <v>-0.01894511800451459</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01354431266640453</v>
+      </c>
+      <c r="E46">
+        <v>0.02283280467702174</v>
+      </c>
+      <c r="F46">
+        <v>0.004359946514298881</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.01029540384499353</v>
+        <v>0.05137956401167419</v>
       </c>
       <c r="C47">
-        <v>0.03042930637410158</v>
+        <v>-0.003531571574331381</v>
       </c>
       <c r="D47">
-        <v>-0.02722396083482071</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01381123171963441</v>
+      </c>
+      <c r="E47">
+        <v>0.02374734368631278</v>
+      </c>
+      <c r="F47">
+        <v>0.03371191323828023</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.01189190958285789</v>
+        <v>0.04970390192574469</v>
       </c>
       <c r="C48">
-        <v>0.04864364994774782</v>
+        <v>-0.00248665749813781</v>
       </c>
       <c r="D48">
-        <v>0.01154701716451186</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.0499670940782686</v>
+      </c>
+      <c r="E48">
+        <v>-0.006149571192635711</v>
+      </c>
+      <c r="F48">
+        <v>-0.009458100538997745</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.03679909371804888</v>
+        <v>0.1994449261660028</v>
       </c>
       <c r="C49">
-        <v>0.2102137497362652</v>
+        <v>-0.01852067108585284</v>
       </c>
       <c r="D49">
-        <v>-0.06803002573602944</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.007897266388790281</v>
+      </c>
+      <c r="E49">
+        <v>0.03124993669014308</v>
+      </c>
+      <c r="F49">
+        <v>-0.03831062453019272</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.01849017292631482</v>
+        <v>0.05071512748763309</v>
       </c>
       <c r="C50">
-        <v>0.04016806845543439</v>
+        <v>-0.01125493586388483</v>
       </c>
       <c r="D50">
-        <v>-0.01195415486484104</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02334498528744212</v>
+      </c>
+      <c r="E50">
+        <v>0.02912876740683331</v>
+      </c>
+      <c r="F50">
+        <v>-0.008565222507646351</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.0004538767015351617</v>
+        <v>0.0009180988922341466</v>
       </c>
       <c r="C51">
-        <v>0.0023389080144618</v>
+        <v>-0.0002590442419455082</v>
       </c>
       <c r="D51">
-        <v>-0.003221351994547096</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0006417357621510203</v>
+      </c>
+      <c r="E51">
+        <v>7.071565169072249e-05</v>
+      </c>
+      <c r="F51">
+        <v>-0.00290230552128682</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.03015512100867308</v>
+        <v>0.1461118895680593</v>
       </c>
       <c r="C52">
-        <v>0.1502658950460738</v>
+        <v>-0.01548436657548617</v>
       </c>
       <c r="D52">
-        <v>0.01912827012158406</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04577642046509424</v>
+      </c>
+      <c r="E52">
+        <v>0.02062943558002277</v>
+      </c>
+      <c r="F52">
+        <v>-0.04077575359192143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.03133104241788555</v>
+        <v>0.1725720798902337</v>
       </c>
       <c r="C53">
-        <v>0.1725323766987936</v>
+        <v>-0.01878258150430575</v>
       </c>
       <c r="D53">
-        <v>-0.01598676814445254</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.00553561241565105</v>
+      </c>
+      <c r="E53">
+        <v>0.03105236742560447</v>
+      </c>
+      <c r="F53">
+        <v>-0.07248567631669019</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01581546106509867</v>
+        <v>0.02230014300326403</v>
       </c>
       <c r="C54">
-        <v>0.04028283695985064</v>
+        <v>-0.01270608099754276</v>
       </c>
       <c r="D54">
-        <v>-0.01225678978146</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03359447412697281</v>
+      </c>
+      <c r="E54">
+        <v>0.01873738337285281</v>
+      </c>
+      <c r="F54">
+        <v>0.003439162695013692</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.02424857866681844</v>
+        <v>0.1140597417106252</v>
       </c>
       <c r="C55">
-        <v>0.08662588115078471</v>
+        <v>-0.01652992078643884</v>
       </c>
       <c r="D55">
-        <v>0.001718165301686855</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.009165187220405107</v>
+      </c>
+      <c r="E55">
+        <v>0.02778598833862297</v>
+      </c>
+      <c r="F55">
+        <v>-0.04660695579122849</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.03231002455875775</v>
+        <v>0.1770373413318046</v>
       </c>
       <c r="C56">
-        <v>0.1599967028197168</v>
+        <v>-0.01617847805420456</v>
       </c>
       <c r="D56">
-        <v>-0.02736552170589336</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.001250276762378604</v>
+      </c>
+      <c r="E56">
+        <v>0.03562524407623575</v>
+      </c>
+      <c r="F56">
+        <v>-0.05080481398231678</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,626 +1831,896 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.0125659966491551</v>
+        <v>0.04663811917310257</v>
       </c>
       <c r="C58">
-        <v>0.05006957597540301</v>
+        <v>-0.0009383823848318304</v>
       </c>
       <c r="D58">
-        <v>0.00745758927545672</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.06722512700600287</v>
+      </c>
+      <c r="E58">
+        <v>0.02769663110506953</v>
+      </c>
+      <c r="F58">
+        <v>0.0365485410212434</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.01197157019232771</v>
+        <v>0.1671706274608802</v>
       </c>
       <c r="C59">
-        <v>0.08429108351221988</v>
+        <v>-0.01945960635554387</v>
       </c>
       <c r="D59">
-        <v>-0.2093948791238014</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2177119076137928</v>
+      </c>
+      <c r="E59">
+        <v>-0.0447048164914146</v>
+      </c>
+      <c r="F59">
+        <v>0.03515608719707149</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.02522825614664271</v>
+        <v>0.2311419829112216</v>
       </c>
       <c r="C60">
-        <v>0.2699563819222864</v>
+        <v>0.00267850690970182</v>
       </c>
       <c r="D60">
-        <v>0.00520470982424489</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04228019807783446</v>
+      </c>
+      <c r="E60">
+        <v>0.0112521080861829</v>
+      </c>
+      <c r="F60">
+        <v>0.006938473756846619</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.0295166768605754</v>
+        <v>0.08238425607738499</v>
       </c>
       <c r="C61">
-        <v>0.1266365379611042</v>
+        <v>-0.01239706705470638</v>
       </c>
       <c r="D61">
-        <v>0.01680961413083816</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1157110607570322</v>
+      </c>
+      <c r="E61">
+        <v>0.03875447538734914</v>
+      </c>
+      <c r="F61">
+        <v>-0.01112265006675992</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.03427828618684685</v>
+        <v>0.1706237058094015</v>
       </c>
       <c r="C62">
-        <v>0.1619661338773127</v>
+        <v>-0.01958346771424063</v>
       </c>
       <c r="D62">
-        <v>-0.0228540185202404</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.007116845723456871</v>
+      </c>
+      <c r="E62">
+        <v>0.0351598261447022</v>
+      </c>
+      <c r="F62">
+        <v>-0.03444697008766084</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01216255905669516</v>
+        <v>0.04560113894352291</v>
       </c>
       <c r="C63">
-        <v>0.05352362112115994</v>
+        <v>-0.002250460553445481</v>
       </c>
       <c r="D63">
-        <v>0.003216699793350276</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05758084587591795</v>
+      </c>
+      <c r="E63">
+        <v>0.02135913575449107</v>
+      </c>
+      <c r="F63">
+        <v>-0.006029745970334116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.02331980211239097</v>
+        <v>0.1109687464835848</v>
       </c>
       <c r="C64">
-        <v>0.09638585885844488</v>
+        <v>-0.01155210275954499</v>
       </c>
       <c r="D64">
-        <v>-0.00750884127155471</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04168181158955304</v>
+      </c>
+      <c r="E64">
+        <v>0.02407189775019265</v>
+      </c>
+      <c r="F64">
+        <v>-0.02572493959506106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.03781917819112811</v>
+        <v>0.1480356829194353</v>
       </c>
       <c r="C65">
-        <v>0.1041010566056373</v>
+        <v>-0.03261594109458759</v>
       </c>
       <c r="D65">
-        <v>-0.01577746118432886</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04277565750109786</v>
+      </c>
+      <c r="E65">
+        <v>0.002691977218377114</v>
+      </c>
+      <c r="F65">
+        <v>-0.03990669226580704</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.04059910730893515</v>
+        <v>0.1252982889405961</v>
       </c>
       <c r="C66">
-        <v>0.2022866988399153</v>
+        <v>-0.01456226624207655</v>
       </c>
       <c r="D66">
-        <v>0.0298339008545747</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1422360671119358</v>
+      </c>
+      <c r="E66">
+        <v>0.06652894377261949</v>
+      </c>
+      <c r="F66">
+        <v>-0.03055456335179957</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.01468089974637048</v>
+        <v>0.0608225343602434</v>
       </c>
       <c r="C67">
-        <v>0.06633761213908304</v>
+        <v>-0.003380729026163072</v>
       </c>
       <c r="D67">
-        <v>0.001921577111821317</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05600961653972887</v>
+      </c>
+      <c r="E67">
+        <v>0.0175196988150203</v>
+      </c>
+      <c r="F67">
+        <v>0.03392142539345327</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.01499029879589372</v>
+        <v>0.1162512565539512</v>
       </c>
       <c r="C68">
-        <v>0.02049217687595169</v>
+        <v>-0.02948445917567824</v>
       </c>
       <c r="D68">
-        <v>-0.1834684863678435</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.26009600517544</v>
+      </c>
+      <c r="E68">
+        <v>-0.08676537777100672</v>
+      </c>
+      <c r="F68">
+        <v>-0.005644479208958871</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.005678576176865268</v>
+        <v>0.03976788028986274</v>
       </c>
       <c r="C69">
-        <v>0.03014760604140946</v>
+        <v>-0.001377085377288567</v>
       </c>
       <c r="D69">
-        <v>-0.005386929921661476</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.007304354545512906</v>
+      </c>
+      <c r="E69">
+        <v>0.02307728385845469</v>
+      </c>
+      <c r="F69">
+        <v>0.001272898940540301</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.0009341016434779718</v>
+        <v>0.06588399708585714</v>
       </c>
       <c r="C70">
-        <v>0.03225371393205822</v>
+        <v>0.0279535236786538</v>
       </c>
       <c r="D70">
-        <v>-0.0036370506326898</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02526781437169632</v>
+      </c>
+      <c r="E70">
+        <v>-0.03982459166214352</v>
+      </c>
+      <c r="F70">
+        <v>0.1864000484714777</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.01863956889090901</v>
+        <v>0.1365191591770543</v>
       </c>
       <c r="C71">
-        <v>0.02601209462221641</v>
+        <v>-0.03426514619762995</v>
       </c>
       <c r="D71">
-        <v>-0.195075444299482</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2741024127306214</v>
+      </c>
+      <c r="E71">
+        <v>-0.09631557658906828</v>
+      </c>
+      <c r="F71">
+        <v>-0.01259588500126521</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.03563230838985428</v>
+        <v>0.1420440071926534</v>
       </c>
       <c r="C72">
-        <v>0.1141927782778722</v>
+        <v>-0.0258807053578483</v>
       </c>
       <c r="D72">
-        <v>-0.03919371147038897</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.001048893946981148</v>
+      </c>
+      <c r="E72">
+        <v>0.03886949723334954</v>
+      </c>
+      <c r="F72">
+        <v>-0.03527644527522344</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.03307203413247223</v>
+        <v>0.2007668143041598</v>
       </c>
       <c r="C73">
-        <v>0.2115653486387033</v>
+        <v>-0.0125794139705507</v>
       </c>
       <c r="D73">
-        <v>-0.0632913222345491</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01719406342023665</v>
+      </c>
+      <c r="E73">
+        <v>0.0644347030014057</v>
+      </c>
+      <c r="F73">
+        <v>-0.03825471004605026</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.01949355011048226</v>
+        <v>0.09497537992684016</v>
       </c>
       <c r="C74">
-        <v>0.1072427684687014</v>
+        <v>-0.01317346786545452</v>
       </c>
       <c r="D74">
-        <v>-0.02213313484702003</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01783648075649684</v>
+      </c>
+      <c r="E74">
+        <v>0.04443473885453992</v>
+      </c>
+      <c r="F74">
+        <v>-0.05607622284131342</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.04075625232771132</v>
+        <v>0.1283220174173755</v>
       </c>
       <c r="C75">
-        <v>0.1328386451099162</v>
+        <v>-0.027730449731503</v>
       </c>
       <c r="D75">
-        <v>-0.03260613421546122</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03043028708116274</v>
+      </c>
+      <c r="E75">
+        <v>0.05815391510642805</v>
+      </c>
+      <c r="F75">
+        <v>-0.01759320274887791</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.0003073439146966607</v>
+        <v>0.0008599811500529922</v>
       </c>
       <c r="C76">
-        <v>0.002767628376096923</v>
+        <v>-0.000236432425031715</v>
       </c>
       <c r="D76">
-        <v>-0.003407038480276636</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.0007012512595378121</v>
+      </c>
+      <c r="E76">
+        <v>0.0002419685771158833</v>
+      </c>
+      <c r="F76">
+        <v>-0.0008508446310096128</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.02438075290888761</v>
+        <v>0.08488928814275426</v>
       </c>
       <c r="C77">
-        <v>0.1014505266299869</v>
+        <v>-0.008210091786647906</v>
       </c>
       <c r="D77">
-        <v>0.05367138789678259</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1132437451745767</v>
+      </c>
+      <c r="E77">
+        <v>0.03811956063319517</v>
+      </c>
+      <c r="F77">
+        <v>-0.03051926490410843</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.05364510955942435</v>
+        <v>0.09970509987050967</v>
       </c>
       <c r="C78">
-        <v>0.1435510878874581</v>
+        <v>-0.03948142319134768</v>
       </c>
       <c r="D78">
-        <v>-0.02141094590980233</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1171791614057177</v>
+      </c>
+      <c r="E78">
+        <v>0.07455047642630606</v>
+      </c>
+      <c r="F78">
+        <v>-0.0452365749072779</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.0359264389320616</v>
+        <v>0.1646677465566812</v>
       </c>
       <c r="C79">
-        <v>0.1439118154196333</v>
+        <v>-0.02219837079127321</v>
       </c>
       <c r="D79">
-        <v>-0.03510753496714217</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01594098194070153</v>
+      </c>
+      <c r="E79">
+        <v>0.04663830253305776</v>
+      </c>
+      <c r="F79">
+        <v>-0.01095354576093878</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.007991186399275168</v>
+        <v>0.08243550593942542</v>
       </c>
       <c r="C80">
-        <v>0.080824622100787</v>
+        <v>0.0007599037466118548</v>
       </c>
       <c r="D80">
-        <v>-0.006491000536245376</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05728782455778653</v>
+      </c>
+      <c r="E80">
+        <v>0.03732078777900234</v>
+      </c>
+      <c r="F80">
+        <v>0.02431333936229066</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.04265784851826616</v>
+        <v>0.1216133901478007</v>
       </c>
       <c r="C81">
-        <v>0.1397056633405496</v>
+        <v>-0.03164014141725843</v>
       </c>
       <c r="D81">
-        <v>-0.01805190120172268</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01597060539082269</v>
+      </c>
+      <c r="E81">
+        <v>0.05790534277906643</v>
+      </c>
+      <c r="F81">
+        <v>-0.01579282113297645</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.03730272084132698</v>
+        <v>0.1664286523002808</v>
       </c>
       <c r="C82">
-        <v>0.1653940264324714</v>
+        <v>-0.02404509150481373</v>
       </c>
       <c r="D82">
-        <v>-0.03175730695942484</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.003918986902540973</v>
+      </c>
+      <c r="E82">
+        <v>0.02803407470913351</v>
+      </c>
+      <c r="F82">
+        <v>-0.07904256781992541</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.01731941970773378</v>
+        <v>0.06066823362752342</v>
       </c>
       <c r="C83">
-        <v>0.07622715110927571</v>
+        <v>-0.003166564014406287</v>
       </c>
       <c r="D83">
-        <v>-0.005800998094441082</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05039154854854903</v>
+      </c>
+      <c r="E83">
+        <v>0.004902714343918484</v>
+      </c>
+      <c r="F83">
+        <v>0.03194389469818713</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.02647471411691981</v>
+        <v>0.05812258697506871</v>
       </c>
       <c r="C84">
-        <v>0.07875552467797176</v>
+        <v>-0.0111181816247237</v>
       </c>
       <c r="D84">
-        <v>0.01204054758353621</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0651315514608692</v>
+      </c>
+      <c r="E84">
+        <v>0.007738714891700724</v>
+      </c>
+      <c r="F84">
+        <v>-0.003480541818962716</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.03745079486554815</v>
+        <v>0.136666931509038</v>
       </c>
       <c r="C85">
-        <v>0.11832397793764</v>
+        <v>-0.02753374040454344</v>
       </c>
       <c r="D85">
-        <v>-0.01640781509182158</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01161801705091298</v>
+      </c>
+      <c r="E85">
+        <v>0.03888029678813071</v>
+      </c>
+      <c r="F85">
+        <v>-0.04538815876491522</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.008019874113247446</v>
+        <v>0.09366345853750406</v>
       </c>
       <c r="C86">
-        <v>0.08563143167181608</v>
+        <v>0.006323906300977736</v>
       </c>
       <c r="D86">
-        <v>-0.2248614248253225</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04143868666973418</v>
+      </c>
+      <c r="E86">
+        <v>0.2109351411868258</v>
+      </c>
+      <c r="F86">
+        <v>0.9084992096666961</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.0385200563044081</v>
+        <v>0.09711028955435291</v>
       </c>
       <c r="C87">
-        <v>0.1033108950397827</v>
+        <v>-0.02027554896595602</v>
       </c>
       <c r="D87">
-        <v>0.05907510031986391</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09503023488606466</v>
+      </c>
+      <c r="E87">
+        <v>-0.05091242878617454</v>
+      </c>
+      <c r="F87">
+        <v>-0.05336451530765902</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.01293474269819792</v>
+        <v>0.06090970346255978</v>
       </c>
       <c r="C88">
-        <v>0.05867239890687092</v>
+        <v>-0.002355154985908304</v>
       </c>
       <c r="D88">
-        <v>0.00577457621672251</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.05014325820636815</v>
+      </c>
+      <c r="E88">
+        <v>0.02487377716209428</v>
+      </c>
+      <c r="F88">
+        <v>-0.01201125152308827</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.0002185596920507941</v>
+        <v>0.1343977639717429</v>
       </c>
       <c r="C89">
-        <v>0.04695454319008155</v>
+        <v>-0.0118660117786264</v>
       </c>
       <c r="D89">
-        <v>-0.2371525559450126</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2519605636610208</v>
+      </c>
+      <c r="E89">
+        <v>-0.0911746754074359</v>
+      </c>
+      <c r="F89">
+        <v>0.008267489830925722</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.01734359965794303</v>
+        <v>0.1496966864068856</v>
       </c>
       <c r="C90">
-        <v>0.02849481617644932</v>
+        <v>-0.03008199130875436</v>
       </c>
       <c r="D90">
-        <v>-0.2052792313891694</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2681832640618578</v>
+      </c>
+      <c r="E90">
+        <v>-0.1115728188638171</v>
+      </c>
+      <c r="F90">
+        <v>0.001567134199480875</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.02300284342006101</v>
+        <v>0.1200969124975927</v>
       </c>
       <c r="C91">
-        <v>0.09883904388026217</v>
+        <v>-0.01859088222606291</v>
       </c>
       <c r="D91">
-        <v>-0.02510117791911326</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01314583422210914</v>
+      </c>
+      <c r="E91">
+        <v>0.05624056394026829</v>
+      </c>
+      <c r="F91">
+        <v>0.00367824575735877</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.00174346115966942</v>
+        <v>0.1475635686532701</v>
       </c>
       <c r="C92">
-        <v>0.04322490523714157</v>
+        <v>-0.02209656795336209</v>
       </c>
       <c r="D92">
-        <v>-0.2159366989083933</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2918361501163814</v>
+      </c>
+      <c r="E92">
+        <v>-0.1005668668283185</v>
+      </c>
+      <c r="F92">
+        <v>0.01358811352590371</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.01388684791677079</v>
+        <v>0.1517591314260713</v>
       </c>
       <c r="C93">
-        <v>0.04184737519696395</v>
+        <v>-0.02603610955588158</v>
       </c>
       <c r="D93">
-        <v>-0.2233718761716527</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2678569632870316</v>
+      </c>
+      <c r="E93">
+        <v>-0.07727126846340986</v>
+      </c>
+      <c r="F93">
+        <v>-0.002815968508742597</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.04062261679990584</v>
+        <v>0.1309856297812126</v>
       </c>
       <c r="C94">
-        <v>0.1524316133719385</v>
+        <v>-0.0246312566309452</v>
       </c>
       <c r="D94">
-        <v>-0.02542913378307874</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04305188040935293</v>
+      </c>
+      <c r="E94">
+        <v>0.05781677298198739</v>
+      </c>
+      <c r="F94">
+        <v>-0.03556097446290307</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.02532201367702738</v>
+        <v>0.127547247611288</v>
       </c>
       <c r="C95">
-        <v>0.1429219817108673</v>
+        <v>-0.004202956811287227</v>
       </c>
       <c r="D95">
-        <v>0.01318850817876415</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09188065338902976</v>
+      </c>
+      <c r="E95">
+        <v>0.04692124929553399</v>
+      </c>
+      <c r="F95">
+        <v>0.007161861538980204</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.9762389150921128</v>
+        <v>0.1052464879589958</v>
       </c>
       <c r="C96">
-        <v>0.1968755252934744</v>
+        <v>0.9878856499889149</v>
       </c>
       <c r="D96">
-        <v>-0.02331222704932233</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.04222091340376134</v>
+      </c>
+      <c r="E96">
+        <v>0.05578906723375119</v>
+      </c>
+      <c r="F96">
+        <v>-0.04238126434272742</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.004204360593224254</v>
+        <v>0.1931299404332895</v>
       </c>
       <c r="C97">
-        <v>0.1602363215505246</v>
+        <v>0.007915434412465668</v>
       </c>
       <c r="D97">
-        <v>-0.1070832904759471</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01622162275728986</v>
+      </c>
+      <c r="E97">
+        <v>0.01857303023987643</v>
+      </c>
+      <c r="F97">
+        <v>0.08946567978198225</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.0251909439493386</v>
+        <v>0.2044011901385013</v>
       </c>
       <c r="C98">
-        <v>0.1965441136618212</v>
+        <v>-0.007308158588400756</v>
       </c>
       <c r="D98">
-        <v>-0.02944929765657683</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01079785628485801</v>
+      </c>
+      <c r="E98">
+        <v>-0.08528144690775015</v>
+      </c>
+      <c r="F98">
+        <v>0.09565222791241136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.003792341836857438</v>
+        <v>0.05545309144611898</v>
       </c>
       <c r="C99">
-        <v>0.05375851706400799</v>
+        <v>0.00476638280473919</v>
       </c>
       <c r="D99">
-        <v>-0.02148259684515124</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.0398157670236203</v>
+      </c>
+      <c r="E99">
+        <v>0.0235615968168005</v>
+      </c>
+      <c r="F99">
+        <v>-0.001419662471442952</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.0074112607335652</v>
+        <v>0.125185065911193</v>
       </c>
       <c r="C100">
-        <v>0.2035461932695405</v>
+        <v>0.05317388649662735</v>
       </c>
       <c r="D100">
-        <v>0.7252455237169546</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3449879920607244</v>
+      </c>
+      <c r="E100">
+        <v>-0.8893448312653112</v>
+      </c>
+      <c r="F100">
+        <v>0.1389934567177142</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.01289472092719959</v>
+        <v>0.02764847993572469</v>
       </c>
       <c r="C101">
-        <v>0.02848638886595119</v>
+        <v>-0.008183317076561124</v>
       </c>
       <c r="D101">
-        <v>-0.01127465208700662</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03229556181189811</v>
+      </c>
+      <c r="E101">
+        <v>0.01077531828392522</v>
+      </c>
+      <c r="F101">
+        <v>0.01154050391846819</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
